--- a/biology/Médecine/Francesc_Salvà_i_Campillo/Francesc_Salvà_i_Campillo.xlsx
+++ b/biology/Médecine/Francesc_Salvà_i_Campillo/Francesc_Salvà_i_Campillo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Francesc_Salv%C3%A0_i_Campillo</t>
+          <t>Francesc_Salvà_i_Campillo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Francesc Salvà i Campillo ou Francisco Salvà y Campillo (Barcelone, Espagne, 12 juillet 1751 - Barcelone, Espagne, 13 février 1828 est un médecin, physicien, ingénieur espagnol d'origine catalane.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Francesc_Salv%C3%A0_i_Campillo</t>
+          <t>Francesc_Salvà_i_Campillo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Francesc Salvà i Campillo est né le 12 juillet 1751 à Barcelone en Espagne. Il étudie la médecine successivement dans les universités de Valence, Huesca, Toulouse où il obtient son doctorat en médecine, et Barcelone.
 En 1773, il entre à l'Académie de médecine pratique, et en 1786, à l'Académie des sciences, toutes les deux situées à Barcelone. Il obtient plusieurs récompenses de l'Académie de médecine à Paris en 1787, 1789 et 1792. Il est connu comme un ardent défenseur et promoteur du vaccin contre la variole, découvert par Edward Jenner en 1796.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Francesc_Salv%C3%A0_i_Campillo</t>
+          <t>Francesc_Salvà_i_Campillo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La electricidad aplicada a la telegrafía, 1795.</t>
         </is>
